--- a/Planning/Prioriteit Features.xlsx
+++ b/Planning/Prioriteit Features.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filon\Git Folder\Project_Bank\Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dwayne de Klerk\Project_Bank\Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193BA148-A288-4145-A7B9-A8306FD8E4E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EBE2ED-465D-4047-B43B-5A1A607A7358}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="2475" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,16 +455,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="A19:E22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.28515625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -483,193 +484,193 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s">
+      <c r="B58" s="2"/>
+      <c r="C58" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s">
+      <c r="B59" s="2"/>
+      <c r="C59" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s">
+      <c r="B60" s="2"/>
+      <c r="C60" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s">
+      <c r="B61" s="2"/>
+      <c r="C61" t="s">
         <v>24</v>
       </c>
     </row>
